--- a/Studies/Ketogenic Diet/Energy Output/VO2max Testing/VO2max_Others/FASTER43_Damian_Stoy/FASTER43_VO2max_Data.xlsx
+++ b/Studies/Ketogenic Diet/Energy Output/VO2max Testing/VO2max_Others/FASTER43_Damian_Stoy/FASTER43_VO2max_Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Time</t>
   </si>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>VO2max</t>
+  </si>
+  <si>
+    <t>Fat Ox
+(kcal/min)</t>
+  </si>
+  <si>
+    <t>CHO Ox
+(kCal/min)</t>
   </si>
 </sst>
 </file>
@@ -555,12 +563,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -646,7 +660,8 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FATmin</c:v>
+                  <c:v>Fat Ox
+(kcal/min)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -721,7 +736,7 @@
             <c:numRef>
               <c:f>'CHO-FAT_VO2max'!$A$2:$A$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.24132492113564671</c:v>
@@ -920,7 +935,8 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CHOmin</c:v>
+                  <c:v>CHO Ox
+(kCal/min)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -995,7 +1011,7 @@
             <c:numRef>
               <c:f>'CHO-FAT_VO2max'!$A$2:$A$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.24132492113564671</c:v>
@@ -1193,11 +1209,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="51148672"/>
-        <c:axId val="51147136"/>
+        <c:axId val="57721600"/>
+        <c:axId val="57723136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51148672"/>
+        <c:axId val="57721600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -1206,16 +1222,16 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51147136"/>
+        <c:crossAx val="57723136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51147136"/>
+        <c:axId val="57723136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,7 +1243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51148672"/>
+        <c:crossAx val="57721600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1238,10 +1254,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.52304734167310041"/>
-          <c:y val="0.4801969322965598"/>
-          <c:w val="0.18325070382289638"/>
-          <c:h val="0.17382603264240321"/>
+          <c:x val="0.56670094991805797"/>
+          <c:y val="0.37557619209063547"/>
+          <c:w val="0.17238482605957514"/>
+          <c:h val="0.29185433717498005"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1290,7 +1306,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Fat/Carb Oxidation vs VO2max"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1598,7 +1614,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,27 +3080,29 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="str">
         <f>RAW!P1</f>
         <v>%VO2max</v>
       </c>
-      <c r="B1" t="str">
-        <f>RAW!L1</f>
-        <v>FATmin</v>
-      </c>
-      <c r="C1" t="str">
-        <f>RAW!N1</f>
-        <v>CHOmin</v>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <f>RAW!P2</f>
         <v>0.24132492113564671</v>
       </c>
@@ -3098,7 +3116,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <f>RAW!P3</f>
         <v>0.3075709779179811</v>
       </c>
@@ -3112,7 +3130,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <f>RAW!P4</f>
         <v>0.36435331230283913</v>
       </c>
@@ -3126,7 +3144,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <f>RAW!P5</f>
         <v>0.3422712933753943</v>
       </c>
@@ -3140,7 +3158,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <f>RAW!P6</f>
         <v>0.41798107255520506</v>
       </c>
@@ -3154,7 +3172,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <f>RAW!P7</f>
         <v>0.43848580441640378</v>
       </c>
@@ -3168,7 +3186,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <f>RAW!P8</f>
         <v>0.49369085173501581</v>
       </c>
@@ -3182,7 +3200,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <f>RAW!P9</f>
         <v>0.52050473186119872</v>
       </c>
@@ -3196,7 +3214,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <f>RAW!P10</f>
         <v>0.52365930599369093</v>
       </c>
@@ -3210,7 +3228,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <f>RAW!P11</f>
         <v>0.56624605678233442</v>
       </c>
@@ -3224,7 +3242,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <f>RAW!P12</f>
         <v>0.61041009463722407</v>
       </c>
@@ -3238,7 +3256,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <f>RAW!P13</f>
         <v>0.62776025236593058</v>
       </c>
@@ -3252,7 +3270,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <f>RAW!P14</f>
         <v>0.59779179810725547</v>
       </c>
@@ -3266,7 +3284,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <f>RAW!P15</f>
         <v>0.71451104100946372</v>
       </c>
@@ -3280,7 +3298,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <f>RAW!P16</f>
         <v>0.66876971608832803</v>
       </c>
@@ -3294,7 +3312,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <f>RAW!P17</f>
         <v>0.74605678233438488</v>
       </c>
@@ -3308,7 +3326,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <f>RAW!P18</f>
         <v>0.76340694006309151</v>
       </c>
@@ -3322,7 +3340,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <f>RAW!P19</f>
         <v>0.71766561514195581</v>
       </c>
@@ -3336,7 +3354,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <f>RAW!P20</f>
         <v>0.85331230283911674</v>
       </c>
@@ -3350,7 +3368,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <f>RAW!P21</f>
         <v>0.80441640378548895</v>
       </c>
@@ -3364,7 +3382,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <f>RAW!P22</f>
         <v>0.85804416403785488</v>
       </c>
@@ -3378,7 +3396,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <f>RAW!P23</f>
         <v>0.85962145110410093</v>
       </c>
@@ -3392,7 +3410,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="4">
         <f>RAW!P24</f>
         <v>0.91009463722397488</v>
       </c>
@@ -3406,7 +3424,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="4">
         <f>RAW!P25</f>
         <v>0.90220820189274453</v>
       </c>
@@ -3420,7 +3438,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="4">
         <f>RAW!P26</f>
         <v>0.92586750788643535</v>
       </c>
@@ -3434,7 +3452,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="4">
         <f>RAW!P27</f>
         <v>0.95425867507886442</v>
       </c>
@@ -3448,7 +3466,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <f>RAW!P28</f>
         <v>0.9637223974763407</v>
       </c>
@@ -3462,7 +3480,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="4">
         <f>RAW!P29</f>
         <v>1</v>
       </c>
@@ -3476,7 +3494,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
         <f>RAW!P30</f>
         <v>0.82649842271293372</v>
       </c>
@@ -3491,7 +3509,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
